--- a/Report.xlsx
+++ b/Report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,29 +480,29 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>150</v>
+        <v>-0.6914893617021276</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6262458417852124</v>
+        <v>6.332875812655695</v>
       </c>
       <c r="F2" t="n">
-        <v>-11.89867099391906</v>
+        <v>2.162561938137853</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.504983367140934</v>
+        <v>1.224384658965657</v>
       </c>
       <c r="H2" t="n">
-        <v>-118.0473421926919</v>
+        <v>-2.339012326833017</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[19.  4.]</t>
+          <t>[-0.34148182 -0.19333786]</t>
         </is>
       </c>
     </row>
@@ -511,29 +511,29 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.89867099391906</v>
+        <v>2.162561938137853</v>
       </c>
       <c r="C3" t="n">
-        <v>7.495016632859066</v>
+        <v>1.224384658965657</v>
       </c>
       <c r="D3" t="n">
-        <v>31.95265780730811</v>
+        <v>-3.030501688535145</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4161147968547338</v>
+        <v>0.7174549393520331</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9538843417696107</v>
+        <v>-0.5082950677025204</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.530950961010206</v>
+        <v>0.8977707843795415</v>
       </c>
       <c r="H3" t="n">
-        <v>-25.76141489977653</v>
+        <v>-0.7614352261917645</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[-2.29235862 10.88870426]</t>
+          <t>[ 0.70846967 -1.25132707]</t>
         </is>
       </c>
     </row>
@@ -542,29 +542,29 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9447866521494493</v>
+        <v>1.654266870435332</v>
       </c>
       <c r="C4" t="n">
-        <v>2.96406567184886</v>
+        <v>2.122155443345198</v>
       </c>
       <c r="D4" t="n">
-        <v>6.191242907531588</v>
+        <v>-3.791936914726909</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6262458232730432</v>
+        <v>0.249670943292115</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.596641272969612</v>
+        <v>0.4225414736038493</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.5466612489591647</v>
+        <v>0.2392330669899301</v>
       </c>
       <c r="H4" t="n">
-        <v>-5.621901348793656</v>
+        <v>-0.5166764101611978</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[4.14636102 0.872918  ]</t>
+          <t>[-1.69239347 -0.95819347]</t>
         </is>
       </c>
     </row>
@@ -573,29 +573,29 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.541427925119061</v>
+        <v>2.076808344039182</v>
       </c>
       <c r="C5" t="n">
-        <v>2.417404422889695</v>
+        <v>2.361388510335128</v>
       </c>
       <c r="D5" t="n">
-        <v>0.569341558737932</v>
+        <v>-4.308613324888107</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4161148197370333</v>
+        <v>0.3894492998889444</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2081657133741817</v>
+        <v>-0.1731025061358449</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.988787335574866</v>
+        <v>0.3057394602305936</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.226864881716999</v>
+        <v>-0.1675028133332566</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[-0.50026027  2.37623677]</t>
+          <t>[ 0.44448021 -0.78505587]</t>
         </is>
       </c>
     </row>
@@ -604,29 +604,29 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.33326221174488</v>
+        <v>1.903705837903337</v>
       </c>
       <c r="C6" t="n">
-        <v>1.428617087314829</v>
+        <v>2.667127970565722</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6575233229790669</v>
+        <v>-4.476116138221363</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6262458602973817</v>
+        <v>0.2157233334681847</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5666638830135682</v>
+        <v>0.1067333828409334</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1192975733686725</v>
+        <v>0.06042904358951295</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2677381405307635</v>
+        <v>-0.0348080455629125</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[0.90485849 0.19049639]</t>
+          <t>[-0.49476976 -0.28012289]</t>
         </is>
       </c>
     </row>
@@ -635,29 +635,29 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.899926094758448</v>
+        <v>2.01043922074427</v>
       </c>
       <c r="C7" t="n">
-        <v>1.309319513946157</v>
+        <v>2.727557014155235</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.9252614635098304</v>
+        <v>-4.510924183784276</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4161147369480959</v>
+        <v>0.2725049618109526</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0454279546687042</v>
+        <v>-0.01440507922578704</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2157825896022763</v>
+        <v>0.0254420766482224</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05842838549943608</v>
+        <v>-0.001574911153392478</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[-0.1091717   0.51856512]</t>
+          <t>[ 0.05286171 -0.09336372]</t>
         </is>
       </c>
     </row>
@@ -666,29 +666,29 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.854498140089744</v>
+        <v>1.996034141518483</v>
       </c>
       <c r="C8" t="n">
-        <v>1.09353692434388</v>
+        <v>2.752999090803457</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.9836898490092665</v>
+        <v>-4.512499094937668</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6262461924847793</v>
+        <v>0.2177326326456634</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1236628288094059</v>
+        <v>0.004315171183735922</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02603429968593285</v>
+        <v>0.002443152895994061</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.01275079529489176</v>
+        <v>-5.644677301752665e-05</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[0.1974668  0.04157199]</t>
+          <t>[-0.01981867 -0.01122089]</t>
         </is>
       </c>
     </row>
@@ -697,29 +697,29 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.97816096889915</v>
+        <v>2.000349312702219</v>
       </c>
       <c r="C9" t="n">
-        <v>1.067502624657948</v>
+        <v>2.755442243699451</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.9964406443041582</v>
+        <v>-4.512555541710686</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4161144532261865</v>
+        <v>0.2675881282459663</v>
       </c>
       <c r="F9" t="n">
-        <v>0.009913744779836087</v>
+        <v>-0.000466511371439049</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04709009901622752</v>
+        <v>0.0008240337652902774</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.002782600068499619</v>
+        <v>-1.675631681408163e-06</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[-0.02382456  0.11316622]</t>
+          <t>[ 0.00174339 -0.00307949]</t>
         </is>
       </c>
     </row>
@@ -728,29 +728,29 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.968247224119314</v>
+        <v>1.99988280133078</v>
       </c>
       <c r="C10" t="n">
-        <v>1.02041252564172</v>
+        <v>2.756266277464742</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.9992232443726579</v>
+        <v>-4.512557217342367</v>
       </c>
       <c r="E10" t="n">
-        <v>0.626247532675519</v>
+        <v>0.2179590484321761</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.026986901282958</v>
+        <v>0.0001274344719981446</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.005681490086711483</v>
+        <v>7.212724974703377e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.0006072449262823909</v>
+        <v>-4.918342355608729e-08</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[0.04309303 0.00907228]</t>
+          <t>[-0.00058467 -0.00033092]</t>
         </is>
       </c>
     </row>
@@ -759,29 +759,29 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-3.995234125402272</v>
+        <v>2.000010235802778</v>
       </c>
       <c r="C11" t="n">
-        <v>1.014731035555009</v>
+        <v>2.756338404714489</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.9998304892989403</v>
+        <v>-4.512557266525791</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4161145403852543</v>
+        <v>0.2674461425632889</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002163498653842577</v>
+        <v>-1.365622940463496e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01027644646097126</v>
+        <v>2.409901046585006e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0001325186339222739</v>
+        <v>-1.434136365219274e-09</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[-0.00519929  0.0246962 ]</t>
+          <t>[ 5.10616054e-05 -9.01079007e-05]</t>
         </is>
       </c>
     </row>
@@ -790,618 +790,29 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-3.993070626748429</v>
+        <v>1.999996579573374</v>
       </c>
       <c r="C12" t="n">
-        <v>1.004454589094037</v>
+        <v>2.756362503724954</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.9999630079328625</v>
+        <v>-4.512557267959927</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6262407250189347</v>
+        <v>0.2188759460431049</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.005889266354071943</v>
+        <v>3.734610048322651e-06</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.001239834478831581</v>
+        <v>2.111211419464354e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.89192859881382e-05</v>
+        <v>-4.18571843852078e-11</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[0.00940416 0.0019798 ]</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-3.998959893102501</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.003214754615206</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.9999919272188507</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.4161183028187532</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.0004721032005825521</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.002242628952054515</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-6.311031707895154e-06</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>[-0.00113454  0.0053894 ]</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-3.998487789901918</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.000972125663151</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.9999982382505586</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.6262580216459064</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.001285265914084288</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.0002705692848528063</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-1.377278561420781e-06</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>[0.00205229 0.00043204]</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-3.999773055816003</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.000701556378298</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-0.99999961552912</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.4161365774957483</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.0001030637181629324</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.0004894467643561384</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-3.005730242477966e-07</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>[-0.00024767  0.00117617]</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-3.99966999209784</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.000212109613942</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-0.9999999161021442</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.6261646066710576</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.0002804630035200262</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-5.899179771096108e-05</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-6.558429532788068e-08</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>[4.47906190e-04 9.42113257e-05]</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-3.99995045510136</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.000153117816231</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-0.9999999816864396</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.4161442918545685</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2.248345168576193e-05</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.0001068203836636084</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-1.431675045182601e-08</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>[-5.40280189e-05  2.56690734e-04]</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>-3.999927971649674</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.000046297432568</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-0.99999999600319</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.626164735224594</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-6.121340625453442e-05</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-1.287802630756119e-05</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-3.124419833966385e-09</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>[9.77592681e-05 2.05665148e-05]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>-3.999989185055929</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.00003341940626</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-0.9999999991276098</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.4168831249416723</v>
-      </c>
-      <c r="F19" t="n">
-        <v>4.914851156723188e-06</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-2.3355405808001e-05</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-6.819789177825442e-10</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>[-1.17895181e-05  5.60238695e-05]</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>-3.999984270204772</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.000010064000452</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-0.9999999998095888</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.6230590024671958</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-1.333071497455762e-05</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-2.740341642937238e-06</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-1.485886969021522e-10</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>[2.13955900e-05 4.39820568e-06]</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>-3.999997600919746</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.000007323658809</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-0.9999999999581775</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.4163167118935246</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.051407147123484e-06</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-5.099145903075808e-06</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-3.2642333280819e-11</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>[-2.52549830e-06  1.22482374e-05]</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.999996549512599</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.000002224512906</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-0.9999999999908198</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.6437602188068636</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-3.010520134960615e-06</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-6.4281930023391e-07</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-7.183587058534613e-12</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>[4.67646190e-06 9.98538402e-07]</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>-3.999999560032734</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.000001581693606</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-0.9999999999980034</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.4157660843019555</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2.91767622062622e-07</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-1.132305685436208e-06</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-1.591615728102624e-12</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>[-7.01759074e-07  2.72342004e-06]</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>-3.999999268265112</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.00000044938792</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-0.999999999999595</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.6212512605579217</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-6.29999640011647e-07</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-1.037747019427826e-07</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-3.126388037344441e-13</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>[1.01408187e-06 1.67041435e-07]</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>-3.999999898264752</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.000000345613218</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-0.9999999999999076</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.4917829236925469</v>
-      </c>
-      <c r="F25" t="n">
-        <v>6.990336176571077e-08</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-2.899016908752827e-07</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-7.105427357601002e-14</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>[-1.42142719e-07  5.89491170e-07]</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>-3.99999982836139</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1.000000055711528</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-0.9999999999999787</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.6455314641977663</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-1.856327016547255e-07</v>
-      </c>
-      <c r="G26" t="n">
-        <v>3.887120980650138e-08</v>
-      </c>
-      <c r="H26" t="n">
-        <v>-1.06581410364015e-14</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>[ 2.87565692e-07 -6.02158252e-08]</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>-4.000000013994092</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1.000000094582737</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-0.9999999999999893</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.403252251037823</v>
-      </c>
-      <c r="F27" t="n">
-        <v>4.942700071453032e-08</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-8.192455314137703e-08</v>
-      </c>
-      <c r="H27" t="n">
-        <v>-1.06581410364015e-14</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>[-1.22570923e-07  2.03159568e-07]</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>-3.999999964567091</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1.000000012658184</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.9323025416980162</v>
-      </c>
-      <c r="F28" t="n">
-        <v>-5.426711924272354e-08</v>
-      </c>
-      <c r="G28" t="n">
-        <v>9.431672998161389e-09</v>
-      </c>
-      <c r="H28" t="n">
-        <v>-7.105427357601002e-15</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>[ 5.82076279e-08 -1.01165369e-08]</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>-4.000000018834211</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1.000000022089857</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-1.000000000000007</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.7120931947105651</v>
-      </c>
-      <c r="F29" t="n">
-        <v>4.255346963688567e-08</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-4.487178617562648e-08</v>
-      </c>
-      <c r="H29" t="n">
-        <v>7.105427357601002e-15</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>[-5.97582873e-08  6.30139236e-08]</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>-3.999999976280741</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.9999999772180711</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.4802665729207422</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-3.372453649674867e-08</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3.327436870481648e-08</v>
-      </c>
-      <c r="H30" t="n">
-        <v>-7.105427357601002e-15</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>[ 7.02204537e-08 -6.92831242e-08]</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>-4.000000010005277</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1.00000001049244</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-1.000000000000007</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.3820080702990291</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.165239016387432e-08</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-1.183847686547779e-08</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>[-3.05029950e-08  3.09901225e-08]</t>
+          <t>[-1.70626792e-05 -9.64569866e-06]</t>
         </is>
       </c>
     </row>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,339 +480,29 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6914893617021276</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>6.332875812655695</v>
+        <v>1.250000989073863</v>
       </c>
       <c r="F2" t="n">
-        <v>2.162561938137853</v>
+        <v>-10.00000791259088</v>
       </c>
       <c r="G2" t="n">
-        <v>1.224384658965657</v>
+        <v>-10.00000791259124</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.339012326833017</v>
+        <v>-79.99999999994991</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[-0.34148182 -0.19333786]</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.162561938137853</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.224384658965657</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-3.030501688535145</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.7174549393520331</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.5082950677025204</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8977707843795415</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-0.7614352261917645</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[ 0.70846967 -1.25132707]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.654266870435332</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.122155443345198</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-3.791936914726909</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.249670943292115</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.4225414736038493</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.2392330669899301</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-0.5166764101611978</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>[-1.69239347 -0.95819347]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2.076808344039182</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.361388510335128</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-4.308613324888107</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3894492998889444</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.1731025061358449</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.3057394602305936</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-0.1675028133332566</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>[ 0.44448021 -0.78505587]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.903705837903337</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.667127970565722</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-4.476116138221363</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.2157233334681847</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1067333828409334</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.06042904358951295</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.0348080455629125</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>[-0.49476976 -0.28012289]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2.01043922074427</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.727557014155235</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-4.510924183784276</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2725049618109526</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-0.01440507922578704</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0254420766482224</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.001574911153392478</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[ 0.05286171 -0.09336372]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.996034141518483</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.752999090803457</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-4.512499094937668</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.2177326326456634</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.004315171183735922</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.002443152895994061</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-5.644677301752665e-05</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>[-0.01981867 -0.01122089]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2.000349312702219</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.755442243699451</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-4.512555541710686</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.2675881282459663</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-0.000466511371439049</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0008240337652902774</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-1.675631681408163e-06</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>[ 0.00174339 -0.00307949]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.99988280133078</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.756266277464742</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-4.512557217342367</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.2179590484321761</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0001274344719981446</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7.212724974703377e-05</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-4.918342355608729e-08</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>[-0.00058467 -0.00033092]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2.000010235802778</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.756338404714489</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-4.512557266525791</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.2674461425632889</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-1.365622940463496e-05</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.409901046585006e-05</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-1.434136365219274e-09</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>[ 5.10616054e-05 -9.01079007e-05]</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1.999996579573374</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.756362503724954</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-4.512557267959927</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.2188759460431049</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3.734610048322651e-06</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.111211419464354e-06</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-4.18571843852078e-11</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>[-1.70626792e-05 -9.64569866e-06]</t>
+          <t>[8. 8.]</t>
         </is>
       </c>
     </row>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,29 +480,4369 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.3333438393591796</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.6666666660044078</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[-4.  0.]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3333438393591796</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.333333333995592</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0999906141764738</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-1.260604772296281e-05</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.3333125522946819</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.55554855439558</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[1.26072310e-04 3.33343839e+00]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3333312333114566</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.3333125522946819</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.777784779600012</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.08333928171377029</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2777823871160004</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1.55686251969156e-05</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.4629554855545126</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[-3.33315072e+00  1.86810168e-04]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.611113620427457</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.3333281209198788</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.3148292940455</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-8.223263226025956e-06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.2777743577575145</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.3858010762165833</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[8.22359307e-05 2.77785500e+00]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.611105397164231</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.6111024786773933</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9290282178289162</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2314872975382402</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-2.432149018960494e-06</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.3215035770535843</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[-2.77776002e+00  2.91848684e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8425926947024711</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.6111049108264123</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6075246407753319</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-6.322562950078492e-06</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.2314784990896462</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.2679183347743028</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[6.32281655e-05 2.31487784e+00]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.842586372139521</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.8425834099160585</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.339606306001029</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1929058826214693</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-2.468597355087532e-06</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.2232667653901326</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[-2.31479763e+00  2.96222346e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.03549225476099</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.8425858785134136</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1163395406108965</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-4.827006159890956e-06</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.1928986389299908</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.1860550385495535</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[4.82719977e-05 1.92906376e+00]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.03548742775483</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.035484517443404</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.06971549793865706</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1607547366352404</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-2.425335960953845e-06</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.15504663738145</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[-1.92899604e+00  2.91031143e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.196242164390071</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.035486942779365</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.224762135320107</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-3.654342141112821e-06</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.160748773849738</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.1292053319109052</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[3.65448872e-05 1.60755222e+00]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B12" t="n">
+        <v>1.19623851004793</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.196235716629103</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.3539674672310122</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1339621425724475</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-2.327922391298642e-06</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.1076714652157339</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[-1.60749505e+00  2.79341883e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.330200652620377</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.196238044551495</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.4616389324467461</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-2.738483115605206e-06</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.1339572349378155</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.08972623329247209</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[2.73859296e-05 1.33962608e+00]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.330197914137262</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.33019527948931</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.5513651657392182</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1116350038469771</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-2.195609158706091e-06</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.07477198227328219</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[-1.33957783e+00  2.63464795e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.441832917984239</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.330197475098469</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.6261371480125004</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-2.026401337174022e-06</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.1116309652791079</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.06231009836631907</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[2.02648262e-05 1.11635443e+00]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.441830891582902</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.441828440377577</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.6884472463788195</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.09302907407023775</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-2.042735485208169e-06</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.05192507896060894</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[-1.11631370e+00  2.45120532e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.534859965653139</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1.441830483113062</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.7403723253394284</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-1.475611517420816e-06</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.09302575120332657</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.04327105034877021</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[1.47567071e-05 9.30294825e-01]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.534858490041622</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.534856234316389</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.7836433756881986</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0775241485571514</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-1.879830274775784e-06</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.0360591459945232</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[-9.30260463e-01  2.25572523e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.612382638598773</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.534858114146663</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.8197025216827218</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-1.052129663170476e-06</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.07752141500659548</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.03004944378791152</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[1.05217187e-05 7.75245245e-01]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.61238158646911</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.612379529153259</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.8497519654706334</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0646033906024388</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-1.714483911730014e-06</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.02504111762359773</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[-7.75216254e-01  2.05731585e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.676984977071549</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.612381243637171</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.8747930830942311</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.09999931095544776</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-7.28843666308876e-07</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.0646032882858727</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.02086774101246036</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[7.28848688e-06 6.46037334e-01]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.676984248227883</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.676984531923043</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.8956608241066915</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.08333058493479632</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.05383441948148371</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.364048365954829e-07</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.01738988809346642</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[-6.4603434e-01 -2.8369516e-06]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.730818667709366</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.676984295518207</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.9130507122001579</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.1000080077344217</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.894418654835306e-06</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.05383868310471263</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.01449171799757043</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[-1.89426697e-05  5.38343722e-01]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.730820562128021</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.730822978622919</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.9275424301977283</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.08332521002979777</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0448608799422201</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.013549449175756e-06</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.01207644238869598</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[-5.38383041e-01 -2.41649490e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.775681442070241</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.73082096507347</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.9396188725864243</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.1000133826394203</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.235022053793557e-06</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.04486648051264996</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.010063763284065</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[-3.23458918e-05  4.48604770e-01]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.775684677092295</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.77568744558612</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.9496826358704893</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.08332521002979777</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.03738454964166715</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.306853294165023e-06</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.008386399957288404</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>[-4.48658331e-01 -2.76849382e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.813069226733962</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.775685138732826</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.9580690358277777</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.1000133826394203</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.066928643573718e-06</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.03738909097883436</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.006988622876148654</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>[-2.06665207e-05  3.73840880e-01]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.813071293662606</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.81307422971166</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.9650576587039263</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.08332188815582235</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.03115295189662315</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.446371509146061e-06</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.005823876112926896</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>[-3.73886773e-01 -2.93604905e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.844224245559229</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.813071783340151</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.9708815348168532</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.1000187575444188</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.689173404624157e-06</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.03115830565601629</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.004853217270608723</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[-2.68866908e-05  3.11524622e-01]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.844226934732634</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.844230088996167</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.975734752087462</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.08332188815582235</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.02596124003572786</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.628191933640167e-06</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.004044344594932303</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>[-3.11577673e-01 -3.15426353e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.870188174768362</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.844227460804234</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.9797790966823943</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.1000133826394203</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.651303158212158e-06</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.0259641881928685</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.003370222045648186</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>[-1.6510822e-05  2.5960714e-01]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.87018982607152</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-1.870191648997102</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.9831493187280425</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.08332521002979777</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.02163443896976047</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.5189565703011e-06</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0.002808512651945372</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>[-2.59638577e-01 -1.82292558e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.89182426504128</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-1.870190130040532</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.9859578313799878</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1000080077344217</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.012072033290679e-06</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.02163586740482359</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-0.002340397945806316</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[-1.0119910e-05  2.1634135e-01]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.891825277113313</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.891825997445356</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.9882982293257941</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.08333058493479632</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.01802912612351815</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6.002569041818617e-07</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.001950316762955429</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>[-2.16356649e-01 -7.20332042e-06]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.909854403236832</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1.891825397188451</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.9902485460887496</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.09999931095544776</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.13303472604187e-07</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.01802888182049633</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-0.001625245722785995</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>[-1.13304253e-06  1.80290060e-01]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.909854516540304</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-1.909854279008948</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.9918737918115356</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.01502452282963618</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-1.979490358294811e-07</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.001354362084127536</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[-1.80288592e-01  2.37531357e-06]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.92487903936994</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-1.909854476957983</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.9932281538956631</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-3.702710931197117e-07</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.01502395978899962</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-0.001128631747706499</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>[3.70285945e-06 1.50245624e-01]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.924878669098847</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-1.924878436746983</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.9943567856433696</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.01252042279752463</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-1.936326561313706e-07</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.0009405308782716171</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>[-1.50240338e-01  2.32351864e-06]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.937399091896372</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-1.924878630379639</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.9952973165216412</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-2.798847806850802e-07</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.01251995933122196</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-0.0007837747405515794</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>[2.79896007e-06 1.25204615e-01]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.937398812011591</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-1.937398589710861</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.9960810912621928</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.01043367491980396</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-1.8525644707168e-07</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-0.0006531475912965323</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>[-1.25200153e-01  2.22300730e-06]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.947832486931395</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-1.937398774967308</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.9967342388534893</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-2.093419690929466e-07</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.01043329347640087</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-0.0005442898847852762</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>[2.09350366e-06 1.04337120e-01]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.947832277589426</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-1.947832068443709</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.9972785287382746</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.008694720145891566</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-1.742935906712262e-07</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-0.0004535755134424946</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>[-1.04333353e-01  2.09145717e-06]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.956526997735318</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-1.9478322427373</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.9977321042517171</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-1.545388828017025e-07</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.008694406258478615</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-0.0003779803856269748</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>[1.54545081e-06 8.69475500e-02]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1.956526843196435</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-1.956526648995778</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.9981100846373441</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.007245592660001021</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-1.618389811053333e-07</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-0.0003149835491061959</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>[-8.69443716e-02  1.94200656e-06]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1.963772435856436</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-1.95652681083476</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.9984250681864503</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-1.121884636301473e-07</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.007245334405559856</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-0.0002624872809723344</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>[1.12192964e-06 7.24562502e-02]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1.963772323667972</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-1.963772145240319</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.9986875554674226</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.006037987665392652</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1.486943972395238e-07</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-0.0002187389602571477</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>[-7.24535684e-02  1.78427653e-06]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1.969810311333365</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-1.963772293934717</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.9989062944276798</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-7.966212600685196e-08</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.006037775218689756</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.0001822834604439105</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>[7.96653213e-07 6.03801740e-02]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1.969810231671239</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-1.969810069153406</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.9990885778881237</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.005031651206241161</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-1.354357956895313e-07</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.0001519023227423144</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>[-6.03779115e-02  1.62517833e-06]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1.97484188287748</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-1.969810204589202</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.999240480210866</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.09999931095544776</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-5.486339604843238e-08</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.005031643617772863</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.0001265861714591088</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>[5.48637740e-07 5.03167829e-02]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1.974841828014084</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-1.974841848206975</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.9993670663823251</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.08333058493479632</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.004192907201807206</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.682685413229024e-08</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.0001054890773269923</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>[-5.03165459e-02 -2.01928909e-07]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1.979034735215891</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-1.974841831380121</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.9994725554596521</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.1000080077344217</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.491329926217588e-07</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.004193239592374054</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-8.79084659091145e-05</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>[-1.49121051e-06  4.19290384e-02]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1.979034884348884</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-1.979035070972495</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.9995604639255612</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.08332521002979777</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.003494000834372457</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.555045159307156e-07</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-7.325709964256522e-05</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>[-4.19320975e-02 -1.86623611e-06]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1.982528885183256</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-1.979034915467979</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-0.9996337210252038</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.1000133826394203</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.532819627365512e-07</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-0.003494437300645803</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-6.104797179917743e-05</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>[-2.53248071e-06  3.49396972e-02]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1.982529138465219</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-1.982529352768625</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.9996947689970029</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.08332521002979777</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.00291170498233706</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.785687628874655e-07</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-5.087287443861221e-05</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>[-3.49438661e-02 -2.14303406e-06]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.985440843447556</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-1.982529174199862</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-0.9997456418714415</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.1000133826394203</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.620844827243673e-07</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.002912058905890857</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-4.239380838133577e-05</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>[-1.62062795e-06  2.91166925e-02]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.985441005532039</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-1.985441233105753</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.9997880356798229</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.08332188815582235</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.002426355436156546</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.896187153960227e-07</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-3.532830770414108e-05</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>[-2.91202647e-02 -2.27573714e-06]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1.987867360968195</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-1.985441043487037</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.999823363987527</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.1000187575444188</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.103646548068383e-07</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.002426772598737248</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-2.944018680994809e-05</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>[-2.10325203e-06  2.42631748e-02]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1.98786757133285</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-1.987867816085775</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-0.999852804174337</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.08332188815582235</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.002021997661683317</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.039327580138917e-07</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-2.453346320197003e-05</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>[-2.42673049e-02 -2.44752924e-06]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1.989889568994534</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-1.987867612153017</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.9998773376375389</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.1000133826394203</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.293768880916701e-07</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.002022227432710411</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-2.044416334046062e-05</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>[-1.29359576e-06  2.02195684e-02]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1.989889698371422</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-1.989889839585727</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.9998977818008794</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.08332521002979777</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.001685003680448327</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.176671164948573e-07</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-1.703676335840232e-05</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>[-2.02220154e-02 -1.41214305e-06]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.99157470205187</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-1.98988972191861</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-0.9999148185642378</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.1000080077344217</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7.946272928549547e-08</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-0.001685115061993647</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-1.419712922001715e-05</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>[-7.94563666e-07  1.68498013e-02]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1.991574781514599</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-1.991574836980604</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-0.9999290156934578</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.08333058493479632</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.001404202989329972</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4.622014637689631e-08</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-1.183084760003617e-05</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>[-1.68509916e-02 -5.54660049e-07]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.992978984503929</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-1.991574790760458</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.9999408465410579</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.09999931095544776</v>
+      </c>
+      <c r="F63" t="n">
+        <v>9.355678232125797e-09</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.001404184067951064</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-9.858931716899555e-06</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>[-9.35574271e-08  1.40419374e-02]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.992978993859607</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-1.992978974828409</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.9999507054727748</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.001170188711669518</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-1.585983211427333e-08</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-8.215717425374969e-06</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>[-1.40418220e-02  1.90311986e-07]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1.994149182571277</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1.992978990688241</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.9999589211902001</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-2.839615231842174e-08</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.001170144947592933</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-6.846412931693635e-06</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>[2.83972914e-07 1.17019188e-02]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1.994149154175125</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-1.994149135635834</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.9999657676031318</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0009751562554853876</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-1.544989580715139e-08</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-5.705369351627354e-06</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>[-1.17015063e-02  1.85392908e-07]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1.99512431043061</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-1.99414915108573</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0.9999714729724835</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-2.143014277145028e-08</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.0009751202320336105</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-4.754469764001179e-06</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>[2.14310024e-07 9.75159345e-03]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.995124289000467</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-1.995124271317763</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0.9999762274422475</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0008126293760439829</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-1.473605104607145e-08</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-3.962069013985214e-06</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>[-9.75124517e-03  1.76827040e-07]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1.995936918376511</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-1.995124286053814</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.9999801895112614</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-1.599735743873509e-08</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-0.000812599728676533</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-3.301726460680499e-06</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>[1.59979991e-07 8.12632323e-03]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1.995936902379154</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-1.995936885782491</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.9999834912377221</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0006771904493236836</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-1.383098835461283e-08</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-2.751441651516195e-06</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>[-8.12602928e-03  1.65966629e-07]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1.996614092828477</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-1.995936899613479</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.9999862426793736</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-1.178022124292966e-08</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-0.0006771660533300139</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-2.292873477416357e-06</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>[1.17806938e-07 6.77193215e-03]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.996614081048256</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-1.996614065666809</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.9999885355528511</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0005643247932900497</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-1.28182764402851e-08</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-1.910726727727408e-06</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>[-6.77168409e-03  1.53814470e-07]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1.997178405841546</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-1.996614078485086</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.9999904462795788</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-8.524428052325561e-09</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-0.0005643047217500641</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-1.592278720208284e-06</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>[8.52476987e-08 5.64327356e-03]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1.997178397317118</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-1.997178383206836</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.999992038558299</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0004702701767895778</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-1.175893937777062e-08</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-1.326895893272173e-06</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>[-5.64306426e-03  1.41102825e-07]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.997648667493908</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-1.997178394965775</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0.9999933654541923</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-6.026672494385821e-09</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-0.0004702536658847123</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-1.105752911234603e-06</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>[6.02691426e-08 4.70272528e-03]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.997648661467235</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-1.99764864863166</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.9999944712071035</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0003918914104223958</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-1.069665001018905e-08</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-9.214571011773032e-07</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>[-4.70254871e-03  1.28355755e-07]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1.998040552877658</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-1.99764865932831</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.9999953926642047</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.09999931095544776</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-4.124850905284916e-09</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.0003918908490267992</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-7.678866051907818e-07</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>[4.12487942e-08 3.91893549e-03]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1.998040548752807</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-1.998040550177337</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.9999961605508099</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.08333058493479632</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0003265656242286141</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.187069109676031e-09</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-6.399089732544994e-07</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>[-3.91891674e-03 -1.42452983e-08]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1.998367114377035</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-1.998040548990268</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-0.9999968004597831</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.1000080077344217</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.173876484905634e-08</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-0.0003265915372567818</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-5.332630941268235e-07</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>[-1.17378250e-07  3.26565387e-03]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1.9983671261158</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-1.998367140527524</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.9999973337228772</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.08332521002979777</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0002721311273055083</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.200859922612096e-08</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-4.443860597280747e-07</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>[-3.26589189e-03 -1.44117240e-07]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1.998639257243106</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-1.998367128518925</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.999997778108937</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.1000133826394203</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.982985153858863e-08</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-0.0002721651421866422</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-3.703241774344335e-07</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>[-1.98271981e-07  2.72128724e-03]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="E2" t="n">
-        <v>1.250000989073863</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-10.00000791259088</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-10.00000791259124</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-79.99999999994991</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[8. 8.]</t>
+      <c r="B82" t="n">
+        <v>1.998639277072957</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-1.998639293661112</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0.9999981484331144</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.08332521002979777</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0002267788694909623</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.38221145640216e-08</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-3.086007545061165e-07</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>[-2.72161174e-03 -1.65881544e-07]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1.998866055942448</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-1.998639279838997</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.9999984570338689</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.1000133826394203</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.270975991118917e-08</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-0.0002268064520791757</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-2.571658280769995e-07</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>[-1.27080592e-07  2.26776103e-03]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1.998866068652208</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-1.998866086291076</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.999998714199697</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.08332188815582235</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0001889772989120964</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.469703803103073e-08</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-2.143056103687258e-07</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>[-2.26803908e-03 -1.76388683e-07]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1.99905504595112</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-1.998866071594038</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.9999989285053074</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.1000187575444188</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.645578007192228e-08</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-0.0001890098040309152</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-1.785876360127503e-07</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>[-1.64526940e-07  1.88974357e-03]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1.9990550624069</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-1.999055081398069</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.9999991070929434</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.08332188815582235</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0001574837926934247</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.582380049214294e-08</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-1.4882283205786e-07</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>[-1.89006510e-03 -1.89911689e-07]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1.999212546199594</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-1.999055065574269</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.9999992559157754</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.1000133826394203</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.013611239386591e-08</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-0.0001575017003891954</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-1.240166995764014e-07</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>[-1.01347562e-07  1.57480625e-03]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1.999212556335706</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-1.999212567274658</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-0.999999379932475</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.08332521002979777</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0001312369323323015</v>
+      </c>
+      <c r="G88" t="n">
+        <v>9.114904608864549e-09</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-1.03346981639163e-07</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>[-1.57499672e-03 -1.09389517e-07]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1.999343793268038</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-1.999212558159753</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-0.9999994832794566</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.1000080077344217</v>
+      </c>
+      <c r="F89" t="n">
+        <v>6.238606742314801e-09</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-0.0001312456172439802</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-8.612145574460328e-08</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>[-6.23810714e-08  1.31235108e-03]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1.999343799506645</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-1.999343803776997</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-0.9999995694009124</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.08333058493479632</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.0001093667004008481</v>
+      </c>
+      <c r="G90" t="n">
+        <v>3.558509265033649e-09</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-7.176729321933806e-08</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>[-1.31244369e-03 -4.27035207e-08]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1.999453166207046</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-1.999343800218488</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-0.9999996411682056</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.1000046858604463</v>
+      </c>
+      <c r="F91" t="n">
+        <v>7.700686754930075e-10</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-0.0001093711132955644</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-5.980543937855742e-08</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>[-7.70032615e-09  1.09365989e-03]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1.999453166977115</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-1.999453171331784</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.999999700973645</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.08333058493479632</v>
+      </c>
+      <c r="F92" t="n">
+        <v>9.113946008842966e-05</v>
+      </c>
+      <c r="G92" t="n">
+        <v>3.628771061414682e-09</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-4.983838752803393e-08</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>[-1.09370959e-03 -4.35466885e-08]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1.999544306437203</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-1.999453167703013</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0.9999997508120325</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.09999931095544776</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-2.16311413225867e-11</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-9.113810620409168e-05</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-4.153132460160691e-08</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>[2.16312748e-10 9.11387342e-04]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1.999544306415572</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-1.999544305809217</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-0.9999997923433571</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F94" t="n">
+        <v>7.595081919009594e-05</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-5.053122364984119e-10</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-3.460936370824896e-08</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>[-9.11381105e-04  6.06355520e-09]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1.999620257234762</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-1.999544306314529</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-0.9999998269527208</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-2.367090745636347e-09</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-7.594787390363678e-05</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-2.884091365729091e-08</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>[2.36718569e-08 7.59509202e-04]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1.999620254867671</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-1.999620254188432</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-0.9999998557936345</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F96" t="n">
+        <v>6.329228414392318e-05</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-5.66050317729605e-10</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-2.403432264319605e-08</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>[-7.59483472e-04  6.79238887e-09]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1.999683547151815</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-1.999620254754483</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-0.9999998798279571</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.09999931095544776</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-1.827682893917881e-09</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-6.329196121956926e-05</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-2.00284809848128e-08</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>[1.82769555e-08 6.32923973e-04]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1.999683545324132</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-1.999683546715702</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-0.9999998998564381</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.08333058493479632</v>
+      </c>
+      <c r="F98" t="n">
+        <v>5.274186609427467e-05</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1.159603302269829e-09</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-1.669071603149774e-08</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>[-6.32923267e-04 -1.39156997e-08]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.999736287190227</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-1.999683545556099</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-0.9999999165471541</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.1000080077344217</v>
+      </c>
+      <c r="F99" t="n">
+        <v>9.279013113427936e-10</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-5.274585753767269e-05</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-1.39088891515371e-08</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>[-9.27827060e-09  5.27416341e-04]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1.999736288118128</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-1.999736291413637</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-0.9999999304560433</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.08333058493479632</v>
+      </c>
+      <c r="F100" t="n">
+        <v>4.395327690809303e-05</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2.74616662743199e-09</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-1.159090090574466e-08</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>[-5.27456719e-04 -3.29550875e-08]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1.999780241395036</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-1.99973628866747</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-0.9999999420469442</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.1000046858604463</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-1.006620342636211e-09</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-4.39547871293744e-05</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-9.65876889580386e-09</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>[1.00657318e-08 4.39527276e-04]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.999780240388416</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-1.999780243454599</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-0.9999999517057131</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.08333058493479632</v>
+      </c>
+      <c r="F102" t="n">
+        <v>3.662794902559163e-05</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2.55506882318457e-09</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-8.049235056262205e-09</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>[-4.39549885e-04 -3.06618375e-08]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.999816868337441</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-1.999780240899531</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-0.9999999597549482</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.09999931095544776</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-1.105391334021988e-09</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-3.66271855312128e-05</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-6.707441158049221e-09</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>[1.10539892e-08 3.66274379e-04]</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.99981686723205</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-1.999816868085062</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-0.9999999664623893</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3.052380085599715e-05</v>
+      </c>
+      <c r="G104" t="n">
+        <v>7.108655886156612e-10</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-5.589645191150794e-09</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>[-3.66274066e-04 -8.53011761e-09]</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.999847391032906</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-1.999816867374196</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-0.9999999720520345</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-1.865215981666779e-09</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-3.052243443057989e-05</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-4.657899399518328e-09</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>[1.86529090e-08 3.05236587e-04]</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.99984738916769</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-1.999847389808627</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0.9999999767099339</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2.543647451580533e-05</v>
+      </c>
+      <c r="G106" t="n">
+        <v>5.341309616824219e-10</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-3.881704846442346e-09</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>[-3.05228074e-04 -6.40936973e-09]</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.999872825642206</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-1.999847389274496</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-0.9999999805916387</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.1000046858604463</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-1.496221146979337e-09</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-2.543755962269856e-05</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-3.234663425999429e-09</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>[1.49615107e-08 2.54363677e-04]</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.999872824145985</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-1.999872826834119</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-0.9999999838263022</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.08333058493479632</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2.119751664730884e-05</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2.240037932921268e-09</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-2.69571120981027e-09</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>[-2.54378589e-04 -2.68813405e-08]</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.999894021662632</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-1.999872824594081</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-0.9999999865220134</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-1.401021521019175e-09</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-2.119621835405816e-05</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-2.246281716189458e-09</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>[1.40107775e-08 2.11970686e-04]</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.99989402026161</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-1.999894020812435</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-0.9999999887682951</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.766430547922582e-05</v>
+      </c>
+      <c r="G110" t="n">
+        <v>4.590345881183566e-10</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-1.87196702583492e-09</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>[-2.11964985e-04 -5.50824275e-09]</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.99991168456709</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-1.9998940203534</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-0.9999999906402621</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.1000080077344217</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-1.12719766853786e-09</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-1.766562819272011e-05</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-1.55992307959707e-09</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>[1.12710748e-08 1.76642137e-04]</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.999911683439892</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-1.999911685981593</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-0.9999999922001852</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.08333058493479632</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1.472105924049671e-05</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2.118014208463137e-09</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-1.300031526874079e-09</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>[-1.76658537e-04 -2.54170085e-08]</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.999926404499133</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-1.999911683863579</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-0.9999999935002167</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.0999906141764738</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-1.53523638246611e-09</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-1.471925390106321e-05</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-1.083259593137598e-09</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>[1.53538049e-08 1.47206356e-04]</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.999926402963896</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-1.99992640311748</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-0.9999999945834763</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.08333595983979487</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.226668728060432e-05</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.279902850370718e-10</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-9.027570913033856e-10</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>[-1.47195608e-04 -1.53583590e-09]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.999938669651177</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-1.999926402989489</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-0.9999999954862334</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.09999598908147235</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-5.918989742781378e-10</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-1.22661696815296e-05</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-7.522823475270002e-10</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>[5.91922646e-09 1.22666617e-04]</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.999938669059278</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-1.999938669159171</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-0.9999999962385158</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.08333928171377029</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.022263634342657e-05</v>
+      </c>
+      <c r="G116" t="n">
+        <v>8.325029554612229e-11</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-6.269157415417226e-10</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>[-1.22662880e-04 -9.98931969e-10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.999948891695621</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-1.999938669075921</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-0.9999999968654315</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.1000274543233928</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-9.590879201937241e-10</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-1.022542625150891e-05</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-5.224115584567812e-10</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>[9.58824753e-09 1.02226197e-04]</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.999948890736533</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-1.999948894502172</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0.9999999973878431</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.0833165132508238</v>
+      </c>
+      <c r="F118" t="n">
+        <v>8.519628652781108e-06</v>
+      </c>
+      <c r="G118" t="n">
+        <v>3.137399007258068e-09</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-4.354131499795244e-10</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>[-1.02256183e-04 -3.76563890e-08]</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.999957410365186</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-1.999948891364773</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-0.9999999978232562</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.1000133826394203</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-1.073593658418304e-09</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-8.52014048002836e-06</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-3.627753653034915e-10</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>[1.07345009e-08 8.51900041e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.999957409291592</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-1.999957411505253</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-0.9999999981860316</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.08333928171377029</v>
+      </c>
+      <c r="F120" t="n">
+        <v>7.100802941861772e-06</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1.844848940280031e-09</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-3.023542527458289e-10</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>[-8.52035534e-05 -2.21366081e-08]</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.999964510094534</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-1.999957409660404</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-0.9999999984883858</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.09998523927147526</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-2.452674729980231e-09</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-7.099386054143508e-06</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-2.51906717707584e-10</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>[2.45303684e-08 7.10043413e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.99996450764186</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-1.999964509046458</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-0.9999999987402926</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.08335872830274135</v>
+      </c>
+      <c r="F122" t="n">
+        <v>5.918366533963493e-06</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1.170855856713615e-09</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-2.099650453502022e-10</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>[-7.09987623e-05 -1.40459889e-08]</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.999970426008393</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-1.999964507875603</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-0.9999999989502576</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.09996784571352732</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-3.333397557980788e-09</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-5.916229857572119e-06</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-1.74924186246983e-10</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>[3.33446964e-08 5.91813279e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.999970422674996</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-1.99997042410546</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-0.9999999991251818</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.08337279998671387</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4.933081421576446e-06</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1.192618004353108e-09</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-1.458146936528237e-10</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>[-5.91689547e-05 -1.43046420e-08]</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.999975355756417</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-1.999970422912842</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-0.9999999992709965</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.09993100556660832</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-3.992102870498115e-09</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-4.929440187817491e-06</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-1.214679468120039e-10</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>[3.99485903e-08 4.93284358e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.999975351764315</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-1.99997535235303</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-0.9999999993924644</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.08338149676568785</v>
+      </c>
+      <c r="F126" t="n">
+        <v>4.110904447740538e-06</v>
+      </c>
+      <c r="G126" t="n">
+        <v>4.908795592228898e-10</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-1.012600003846842e-10</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>[-4.93023585e-05 -5.88715299e-09]</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.999979462668762</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-1.99997535186215</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-0.9999999994937244</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.09993970234558229</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-3.338350262893641e-09</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-4.108327891882979e-06</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-8.435641074555633e-11</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>[3.34036447e-08 4.11080661e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.999979459330412</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-1.999979460190042</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-0.9999999995780808</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.08334465661876884</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3.424626562775757e-06</v>
+      </c>
+      <c r="G128" t="n">
+        <v>7.164557835892538e-10</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-7.032485704883129e-11</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>[-4.10899355e-05 -8.59630138e-09]</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.999982883956975</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-1.999979459473586</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-0.9999999996484057</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.09998523927147526</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-1.274595318179195e-09</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-3.423977909644549e-06</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-5.859179807998771e-11</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>[1.27478339e-08 3.42448339e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.99998288268238</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-1.999982883451496</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-0.9999999997069975</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.08338149676568785</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2.855176428395723e-06</v>
+      </c>
+      <c r="G130" t="n">
+        <v>6.413007902494883e-10</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-4.883737858563109e-11</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>[-3.42423264e-05 -7.69116541e-09]</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.999985737858808</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-1.999982882810195</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-0.9999999997558349</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.09995377402955481</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-2.6191628865746e-09</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-2.85372883879198e-06</v>
+      </c>
+      <c r="H131" t="n">
+        <v>-4.068179126903715e-11</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>[2.62037423e-08 2.85504861e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.999985735239645</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-1.999985736539034</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-0.9999999997965167</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.08340426522863434</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2.380567458049043e-06</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1.083745981844686e-09</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-3.391897873683547e-11</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>[-2.85425146e-05 -1.29938915e-08]</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.999988115807103</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-1.999985735455288</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-0.9999999998304356</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.09987471883071825</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-3.508834112153636e-09</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-2.377369682449171e-06</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-2.824696032632801e-11</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>[3.51323560e-08 2.38035181e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.999988112298269</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-1.999988112824971</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-0.9999999998586826</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.08342703369158082</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.983950797201928e-06</v>
+      </c>
+      <c r="G134" t="n">
+        <v>4.39411396158107e-10</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-2.355460271274978e-11</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>[-2.37806705e-05 -5.26701571e-09]</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.999990096249066</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-1.999988112385559</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-0.9999999998822372</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.09986602205174427</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-3.109149160351876e-09</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-1.981205567380684e-06</v>
+      </c>
+      <c r="H135" t="n">
+        <v>-1.961697471131174e-11</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>[3.11332040e-08 1.98386351e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.999990093139917</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-1.999990093591127</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-0.9999999999018542</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.08349533908042028</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1.654730022560003e-06</v>
+      </c>
+      <c r="G136" t="n">
+        <v>3.76738862328807e-10</v>
+      </c>
+      <c r="H136" t="n">
+        <v>-1.635880320094429e-11</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>[-1.98182323e-05 -4.51209403e-09]</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.99999174786994</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-1.999990093214388</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-0.999999999918213</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.09975550161098726</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-4.219198768140586e-09</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-1.650609945835768e-06</v>
+      </c>
+      <c r="H137" t="n">
+        <v>-1.361977197689157e-11</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>[4.22953996e-08 1.65465555e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.999991743650741</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-1.999991743824334</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-0.9999999999318328</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.08347257061747379</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1.3785022954238e-06</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1.449023123711868e-10</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-1.1361578344804e-11</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>[-1.65144344e-05 -1.73592696e-09]</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.999993122153036</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-1.999991743679431</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-0.9999999999431943</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.09971533959009284</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-2.895945261371935e-09</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-1.374549636334876e-06</v>
+      </c>
+      <c r="H139" t="n">
+        <v>-9.460987548948196e-12</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>[2.90421229e-08 1.37847361e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.999993119257091</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-1.999993118229068</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-0.9999999999526553</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.08356569750028288</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.149129086108758e-06</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-8.590750333326014e-10</v>
+      </c>
+      <c r="H140" t="n">
+        <v>-7.888911746078975e-12</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>[-1.37512056e-05  1.02802356e-08]</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.999994268386177</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-1.999993119088143</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-0.9999999999605442</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.09971533959009285</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-2.966800582981932e-09</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1.146026437970349e-06</v>
+      </c>
+      <c r="H141" t="n">
+        <v>-6.570410882034139e-12</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>[2.97527007e-08 1.14929803e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.999994265419377</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-1.999994265114581</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-0.9999999999671146</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.08354625091131181</v>
+      </c>
+      <c r="F142" t="n">
+        <v>9.579507778134655e-07</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-2.546456379093343e-10</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-5.48039391645716e-12</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>[-1.14661133e-05  3.04795974e-09]</t>
         </is>
       </c>
     </row>
